--- a/receiptsData/付款申请单数据.xlsx
+++ b/receiptsData/付款申请单数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\customReceipts\receiptsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B23D3D2-2DC9-4D7F-86A1-5DDBCADCD1B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7550C0D-4047-443C-8E00-8F6862BC9A96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{BADE6DAC-E3B5-42DE-92D5-9C0999B69204}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>申请部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,47 +137,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海蓝本色好评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陈星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孙雪梅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡锐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄春雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场一组</t>
+    <t>转帐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理IP包月服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,43 +227,88 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -339,54 +356,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9C3CC0D4-F624-415C-9E28-38B00DE624D7}" name="表2" displayName="表2" ref="A1:Y7" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:Y7" xr:uid="{B3838ACA-4FA7-429D-A381-359E665F196C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9C3CC0D4-F624-415C-9E28-38B00DE624D7}" name="表2" displayName="表2" ref="A1:Y2" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+  <autoFilter ref="A1:Y2" xr:uid="{B3838ACA-4FA7-429D-A381-359E665F196C}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{6496E721-7881-41FB-B2EB-8693BBA67207}" name="申请部门"/>
-    <tableColumn id="2" xr3:uid="{595E67CF-5FCE-4D36-8663-087461F1CB0C}" name="年"/>
-    <tableColumn id="3" xr3:uid="{C20E6731-B697-4FC8-BC2F-F5F29305D6EF}" name="月"/>
-    <tableColumn id="4" xr3:uid="{8D08AE57-8611-46E7-97A5-AFF04A53605B}" name="日"/>
-    <tableColumn id="5" xr3:uid="{69A5A686-2C37-467A-B404-EDE2D9E70748}" name="收款单位"/>
-    <tableColumn id="6" xr3:uid="{AD88A272-02B3-4F4A-9A33-F6AE0F4F43F2}" name="付款内容"/>
-    <tableColumn id="7" xr3:uid="{F4291CE3-6CE4-489C-846D-B196A31D419A}" name="开户银行"/>
-    <tableColumn id="8" xr3:uid="{B0E569FE-9CFD-4FA1-B4B8-7CFD16C07485}" name="付款方式"/>
-    <tableColumn id="9" xr3:uid="{F3E2A1DC-D937-44B5-A564-96B267D7A6DD}" name="银行帐号"/>
-    <tableColumn id="10" xr3:uid="{4CDBA9C0-EFE6-4978-8D4A-A41D3FF9361F}" name="付款日期"/>
-    <tableColumn id="11" xr3:uid="{AFEDB6E9-379F-40D2-AC68-18960ED092D2}" name="千万" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{6496E721-7881-41FB-B2EB-8693BBA67207}" name="申请部门" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{595E67CF-5FCE-4D36-8663-087461F1CB0C}" name="年" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C20E6731-B697-4FC8-BC2F-F5F29305D6EF}" name="月" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8D08AE57-8611-46E7-97A5-AFF04A53605B}" name="日" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{69A5A686-2C37-467A-B404-EDE2D9E70748}" name="收款单位" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{AD88A272-02B3-4F4A-9A33-F6AE0F4F43F2}" name="付款内容" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{F4291CE3-6CE4-489C-846D-B196A31D419A}" name="开户银行" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{B0E569FE-9CFD-4FA1-B4B8-7CFD16C07485}" name="付款方式" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{F3E2A1DC-D937-44B5-A564-96B267D7A6DD}" name="银行帐号" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{4CDBA9C0-EFE6-4978-8D4A-A41D3FF9361F}" name="付款日期" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{AFEDB6E9-379F-40D2-AC68-18960ED092D2}" name="千万" dataDxfId="19">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{2B094569-6808-4163-9B6E-7DBD7B65D6FB}" name="百万" dataDxfId="8">
+    <tableColumn id="12" xr3:uid="{2B094569-6808-4163-9B6E-7DBD7B65D6FB}" name="百万" dataDxfId="18">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{14219BC9-1CBA-4F39-AC55-90CE114BD0BA}" name="十万" dataDxfId="7">
+    <tableColumn id="13" xr3:uid="{14219BC9-1CBA-4F39-AC55-90CE114BD0BA}" name="十万" dataDxfId="17">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{35A200E0-A906-4751-A024-8244459C5129}" name="万" dataDxfId="6">
+    <tableColumn id="14" xr3:uid="{35A200E0-A906-4751-A024-8244459C5129}" name="万" dataDxfId="16">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0A8FD463-3A16-4495-928F-2FE8DFF5D339}" name="千" dataDxfId="5">
+    <tableColumn id="15" xr3:uid="{0A8FD463-3A16-4495-928F-2FE8DFF5D339}" name="千" dataDxfId="15">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{B1896C84-5985-4B44-A6F2-FAE795161AD7}" name="百" dataDxfId="4">
+    <tableColumn id="16" xr3:uid="{B1896C84-5985-4B44-A6F2-FAE795161AD7}" name="百" dataDxfId="14">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{901C8324-67F8-479A-853A-8673D7D223AA}" name="十" dataDxfId="3">
+    <tableColumn id="17" xr3:uid="{901C8324-67F8-479A-853A-8673D7D223AA}" name="十" dataDxfId="13">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{2BBCDDE8-E237-4BFF-B91F-6B35952B727B}" name="个" dataDxfId="1">
+    <tableColumn id="18" xr3:uid="{2BBCDDE8-E237-4BFF-B91F-6B35952B727B}" name="个" dataDxfId="12">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)))=0,"X",TEXT(TRUNC(TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{0E61CF8F-C072-43CE-ADC6-2C95AA3294F0}" name="角" dataDxfId="2">
+    <tableColumn id="19" xr3:uid="{0E61CF8F-C072-43CE-ADC6-2C95AA3294F0}" name="角" dataDxfId="11">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{2CBD378D-3E40-4677-B65A-67BD193A1DBA}" name="分" dataDxfId="0">
+    <tableColumn id="20" xr3:uid="{2CBD378D-3E40-4677-B65A-67BD193A1DBA}" name="分" dataDxfId="10">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{27351D80-B021-4A98-B89B-C335D1313F21}" name="金额" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{361060B7-DF10-49BE-B089-94B6F3BCB51F}" name="单位领导"/>
-    <tableColumn id="23" xr3:uid="{0E7F6950-6DAC-4388-82AD-8211AF15894A}" name="财务部门"/>
-    <tableColumn id="24" xr3:uid="{FE2AC995-C8D7-4F06-996C-A4158140B3FE}" name="部门主管"/>
-    <tableColumn id="25" xr3:uid="{F5B000DC-B26C-4311-8EBB-E91ABB4E683C}" name="经办人"/>
+    <tableColumn id="21" xr3:uid="{27351D80-B021-4A98-B89B-C335D1313F21}" name="金额" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{361060B7-DF10-49BE-B089-94B6F3BCB51F}" name="单位领导" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{0E7F6950-6DAC-4388-82AD-8211AF15894A}" name="财务部门" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{FE2AC995-C8D7-4F06-996C-A4158140B3FE}" name="部门主管" dataDxfId="6"/>
+    <tableColumn id="25" xr3:uid="{F5B000DC-B26C-4311-8EBB-E91ABB4E683C}" name="经办人" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -689,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685EB6AA-65A8-47EE-852F-F6AB9BB6A43B}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -786,453 +803,78 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>2019</v>
       </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="4" t="str">
         <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000),"[DBNum2]"))</f>
-        <v>贰</v>
+        <v>X</v>
       </c>
       <c r="L2" s="4" t="str">
         <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000),"[DBNum2]"))</f>
-        <v>贰</v>
+        <v>X</v>
       </c>
       <c r="M2" s="4" t="str">
         <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000),"[DBNum2]"))</f>
-        <v>叁</v>
+        <v>X</v>
       </c>
       <c r="N2" s="4" t="str">
         <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000),"[DBNum2]"))</f>
-        <v>肆</v>
+        <v>X</v>
       </c>
       <c r="O2" s="4" t="str">
         <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000),"[DBNum2]"))</f>
-        <v>伍</v>
+        <v>X</v>
       </c>
       <c r="P2" s="4" t="str">
         <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100),"[DBNum2]"))</f>
-        <v>陆</v>
+        <v>叁</v>
       </c>
       <c r="Q2" s="4" t="str">
         <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10),"[DBNum2]"))</f>
-        <v>柒</v>
+        <v>叁</v>
       </c>
       <c r="R2" s="4" t="str">
         <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)))=0,"X",TEXT(TRUNC(TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)),"[DBNum2]"))</f>
-        <v>捌</v>
+        <v>柒</v>
       </c>
       <c r="S2" s="4" t="str">
         <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10),"[DBNum2]"))</f>
-        <v>伍</v>
+        <v>X</v>
       </c>
       <c r="T2" s="4" t="str">
         <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100),"[DBNum2]"))</f>
-        <v>伍</v>
+        <v>X</v>
       </c>
       <c r="U2" s="2">
-        <v>22345678.559999999</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>2019</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+        <v>337</v>
+      </c>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000),"[DBNum2]"))</f>
-        <v>X</v>
-      </c>
-      <c r="L3" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000),"[DBNum2]"))</f>
-        <v>叁</v>
-      </c>
-      <c r="M3" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000),"[DBNum2]"))</f>
-        <v>伍</v>
-      </c>
-      <c r="N3" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000),"[DBNum2]"))</f>
-        <v>陆</v>
-      </c>
-      <c r="O3" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000),"[DBNum2]"))</f>
-        <v>柒</v>
-      </c>
-      <c r="P3" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100),"[DBNum2]"))</f>
-        <v>捌</v>
-      </c>
-      <c r="Q3" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10),"[DBNum2]"))</f>
-        <v>贰</v>
-      </c>
-      <c r="R3" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)))=0,"X",TEXT(TRUNC(TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)),"[DBNum2]"))</f>
-        <v>叁</v>
-      </c>
-      <c r="S3" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10),"[DBNum2]"))</f>
-        <v>X</v>
-      </c>
-      <c r="T3" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100),"[DBNum2]"))</f>
-        <v>X</v>
-      </c>
-      <c r="U3" s="2">
-        <v>3567823</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>2019</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000),"[DBNum2]"))</f>
-        <v>肆</v>
-      </c>
-      <c r="L4" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000),"[DBNum2]"))</f>
-        <v>贰</v>
-      </c>
-      <c r="M4" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000),"[DBNum2]"))</f>
-        <v>叁</v>
-      </c>
-      <c r="N4" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000),"[DBNum2]"))</f>
-        <v>肆</v>
-      </c>
-      <c r="O4" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000),"[DBNum2]"))</f>
-        <v>伍</v>
-      </c>
-      <c r="P4" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100),"[DBNum2]"))</f>
-        <v>陆</v>
-      </c>
-      <c r="Q4" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10),"[DBNum2]"))</f>
-        <v>柒</v>
-      </c>
-      <c r="R4" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)))=0,"X",TEXT(TRUNC(TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)),"[DBNum2]"))</f>
-        <v>捌</v>
-      </c>
-      <c r="S4" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10),"[DBNum2]"))</f>
-        <v>伍</v>
-      </c>
-      <c r="T4" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100),"[DBNum2]"))</f>
-        <v>陆</v>
-      </c>
-      <c r="U4" s="2">
-        <v>42345678.560000002</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>2019</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000),"[DBNum2]"))</f>
-        <v>壹</v>
-      </c>
-      <c r="L5" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000),"[DBNum2]"))</f>
-        <v>贰</v>
-      </c>
-      <c r="M5" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000),"[DBNum2]"))</f>
-        <v>叁</v>
-      </c>
-      <c r="N5" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000),"[DBNum2]"))</f>
-        <v>肆</v>
-      </c>
-      <c r="O5" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000),"[DBNum2]"))</f>
-        <v>伍</v>
-      </c>
-      <c r="P5" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100),"[DBNum2]"))</f>
-        <v>陆</v>
-      </c>
-      <c r="Q5" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10),"[DBNum2]"))</f>
-        <v>柒</v>
-      </c>
-      <c r="R5" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)))=0,"X",TEXT(TRUNC(TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)),"[DBNum2]"))</f>
-        <v>捌</v>
-      </c>
-      <c r="S5" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10),"[DBNum2]"))</f>
-        <v>伍</v>
-      </c>
-      <c r="T5" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100),"[DBNum2]"))</f>
-        <v>陆</v>
-      </c>
-      <c r="U5" s="2">
-        <v>12345678.560000001</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>2019</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000),"[DBNum2]"))</f>
-        <v>壹</v>
-      </c>
-      <c r="L6" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000),"[DBNum2]"))</f>
-        <v>贰</v>
-      </c>
-      <c r="M6" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000),"[DBNum2]"))</f>
-        <v>叁</v>
-      </c>
-      <c r="N6" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000),"[DBNum2]"))</f>
-        <v>肆</v>
-      </c>
-      <c r="O6" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000),"[DBNum2]"))</f>
-        <v>伍</v>
-      </c>
-      <c r="P6" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100),"[DBNum2]"))</f>
-        <v>陆</v>
-      </c>
-      <c r="Q6" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10),"[DBNum2]"))</f>
-        <v>柒</v>
-      </c>
-      <c r="R6" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)))=0,"X",TEXT(TRUNC(TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)),"[DBNum2]"))</f>
-        <v>捌</v>
-      </c>
-      <c r="S6" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10),"[DBNum2]"))</f>
-        <v>伍</v>
-      </c>
-      <c r="T6" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100),"[DBNum2]"))</f>
-        <v>陆</v>
-      </c>
-      <c r="U6" s="2">
-        <v>12345678.560000001</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>2019</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="K7" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000),"[DBNum2]"))</f>
-        <v>壹</v>
-      </c>
-      <c r="L7" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000),"[DBNum2]"))</f>
-        <v>叁</v>
-      </c>
-      <c r="M7" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000),"[DBNum2]"))</f>
-        <v>伍</v>
-      </c>
-      <c r="N7" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000),"[DBNum2]"))</f>
-        <v>陆</v>
-      </c>
-      <c r="O7" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000),"[DBNum2]"))</f>
-        <v>肆</v>
-      </c>
-      <c r="P7" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100),"[DBNum2]"))</f>
-        <v>捌</v>
-      </c>
-      <c r="Q7" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10),"[DBNum2]"))</f>
-        <v>柒</v>
-      </c>
-      <c r="R7" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)))=0,"X",TEXT(TRUNC(TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)),"[DBNum2]"))</f>
-        <v>贰</v>
-      </c>
-      <c r="S7" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10),"[DBNum2]"))</f>
-        <v>X</v>
-      </c>
-      <c r="T7" s="4" t="str">
-        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100),"[DBNum2]"))</f>
-        <v>X</v>
-      </c>
-      <c r="U7" s="2">
-        <v>13564872</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/receiptsData/付款申请单数据.xlsx
+++ b/receiptsData/付款申请单数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\customReceipts\receiptsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7550C0D-4047-443C-8E00-8F6862BC9A96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF996AE-0473-4327-92FF-A49D6FDD3A48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{BADE6DAC-E3B5-42DE-92D5-9C0999B69204}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>申请部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,33 @@
   </si>
   <si>
     <t>09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络组</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱衍颖</t>
+  </si>
+  <si>
+    <t>20190812海蓝本色好评1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周克旺</t>
+  </si>
+  <si>
+    <t>20190904海蓝本色好评1个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +188,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +199,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -211,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,6 +264,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -248,21 +285,6 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     </dxf>
     <dxf>
@@ -309,19 +331,34 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -356,54 +393,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9C3CC0D4-F624-415C-9E28-38B00DE624D7}" name="表2" displayName="表2" ref="A1:Y2" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
-  <autoFilter ref="A1:Y2" xr:uid="{B3838ACA-4FA7-429D-A381-359E665F196C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9C3CC0D4-F624-415C-9E28-38B00DE624D7}" name="表2" displayName="表2" ref="A1:Y4" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26">
+  <autoFilter ref="A1:Y4" xr:uid="{B3838ACA-4FA7-429D-A381-359E665F196C}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{6496E721-7881-41FB-B2EB-8693BBA67207}" name="申请部门" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{595E67CF-5FCE-4D36-8663-087461F1CB0C}" name="年" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C20E6731-B697-4FC8-BC2F-F5F29305D6EF}" name="月" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{8D08AE57-8611-46E7-97A5-AFF04A53605B}" name="日" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{69A5A686-2C37-467A-B404-EDE2D9E70748}" name="收款单位" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{AD88A272-02B3-4F4A-9A33-F6AE0F4F43F2}" name="付款内容" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{F4291CE3-6CE4-489C-846D-B196A31D419A}" name="开户银行" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{B0E569FE-9CFD-4FA1-B4B8-7CFD16C07485}" name="付款方式" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{F3E2A1DC-D937-44B5-A564-96B267D7A6DD}" name="银行帐号" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{4CDBA9C0-EFE6-4978-8D4A-A41D3FF9361F}" name="付款日期" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{AFEDB6E9-379F-40D2-AC68-18960ED092D2}" name="千万" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{6496E721-7881-41FB-B2EB-8693BBA67207}" name="申请部门" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{595E67CF-5FCE-4D36-8663-087461F1CB0C}" name="年" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{C20E6731-B697-4FC8-BC2F-F5F29305D6EF}" name="月" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{8D08AE57-8611-46E7-97A5-AFF04A53605B}" name="日" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{69A5A686-2C37-467A-B404-EDE2D9E70748}" name="收款单位" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{AD88A272-02B3-4F4A-9A33-F6AE0F4F43F2}" name="付款内容" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{F4291CE3-6CE4-489C-846D-B196A31D419A}" name="开户银行" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{B0E569FE-9CFD-4FA1-B4B8-7CFD16C07485}" name="付款方式" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{F3E2A1DC-D937-44B5-A564-96B267D7A6DD}" name="银行帐号" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{4CDBA9C0-EFE6-4978-8D4A-A41D3FF9361F}" name="付款日期" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{AFEDB6E9-379F-40D2-AC68-18960ED092D2}" name="千万" dataDxfId="14">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{2B094569-6808-4163-9B6E-7DBD7B65D6FB}" name="百万" dataDxfId="18">
+    <tableColumn id="12" xr3:uid="{2B094569-6808-4163-9B6E-7DBD7B65D6FB}" name="百万" dataDxfId="13">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{14219BC9-1CBA-4F39-AC55-90CE114BD0BA}" name="十万" dataDxfId="17">
+    <tableColumn id="13" xr3:uid="{14219BC9-1CBA-4F39-AC55-90CE114BD0BA}" name="十万" dataDxfId="12">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{35A200E0-A906-4751-A024-8244459C5129}" name="万" dataDxfId="16">
+    <tableColumn id="14" xr3:uid="{35A200E0-A906-4751-A024-8244459C5129}" name="万" dataDxfId="11">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0A8FD463-3A16-4495-928F-2FE8DFF5D339}" name="千" dataDxfId="15">
+    <tableColumn id="15" xr3:uid="{0A8FD463-3A16-4495-928F-2FE8DFF5D339}" name="千" dataDxfId="10">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{B1896C84-5985-4B44-A6F2-FAE795161AD7}" name="百" dataDxfId="14">
+    <tableColumn id="16" xr3:uid="{B1896C84-5985-4B44-A6F2-FAE795161AD7}" name="百" dataDxfId="9">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{901C8324-67F8-479A-853A-8673D7D223AA}" name="十" dataDxfId="13">
+    <tableColumn id="17" xr3:uid="{901C8324-67F8-479A-853A-8673D7D223AA}" name="十" dataDxfId="8">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{2BBCDDE8-E237-4BFF-B91F-6B35952B727B}" name="个" dataDxfId="12">
+    <tableColumn id="18" xr3:uid="{2BBCDDE8-E237-4BFF-B91F-6B35952B727B}" name="个" dataDxfId="7">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)))=0,"X",TEXT(TRUNC(TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{0E61CF8F-C072-43CE-ADC6-2C95AA3294F0}" name="角" dataDxfId="11">
+    <tableColumn id="19" xr3:uid="{0E61CF8F-C072-43CE-ADC6-2C95AA3294F0}" name="角" dataDxfId="6">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{2CBD378D-3E40-4677-B65A-67BD193A1DBA}" name="分" dataDxfId="10">
+    <tableColumn id="20" xr3:uid="{2CBD378D-3E40-4677-B65A-67BD193A1DBA}" name="分" dataDxfId="5">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{27351D80-B021-4A98-B89B-C335D1313F21}" name="金额" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{361060B7-DF10-49BE-B089-94B6F3BCB51F}" name="单位领导" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{0E7F6950-6DAC-4388-82AD-8211AF15894A}" name="财务部门" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{FE2AC995-C8D7-4F06-996C-A4158140B3FE}" name="部门主管" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{F5B000DC-B26C-4311-8EBB-E91ABB4E683C}" name="经办人" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{27351D80-B021-4A98-B89B-C335D1313F21}" name="金额" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{361060B7-DF10-49BE-B089-94B6F3BCB51F}" name="单位领导" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{0E7F6950-6DAC-4388-82AD-8211AF15894A}" name="财务部门" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{FE2AC995-C8D7-4F06-996C-A4158140B3FE}" name="部门主管" dataDxfId="1"/>
+    <tableColumn id="25" xr3:uid="{F5B000DC-B26C-4311-8EBB-E91ABB4E683C}" name="经办人" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -706,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685EB6AA-65A8-47EE-852F-F6AB9BB6A43B}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -877,6 +914,156 @@
         <v>26</v>
       </c>
     </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="L3" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="M3" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="Q3" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10),"[DBNum2]"))</f>
+        <v>伍</v>
+      </c>
+      <c r="R3" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)))=0,"X",TEXT(TRUNC(TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="S3" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="T3" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="U3" s="2">
+        <v>50</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-7)-TRUNC(表2[[#This Row],[金额]],-8))/10000000),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="L4" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-6)-TRUNC(表2[[#This Row],[金额]],-7))/1000000),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="M4" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-5)-TRUNC(表2[[#This Row],[金额]],-6))/100000),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="N4" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="O4" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="Q4" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10),"[DBNum2]"))</f>
+        <v>伍</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)))=0,"X",TEXT(TRUNC(TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="S4" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="T4" s="4" t="str">
+        <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],2)-TRUNC(表2[[#This Row],[金额]],1))*100),"[DBNum2]"))</f>
+        <v>X</v>
+      </c>
+      <c r="U4" s="2">
+        <v>50</v>
+      </c>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/receiptsData/付款申请单数据.xlsx
+++ b/receiptsData/付款申请单数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\customReceipts\receiptsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF996AE-0473-4327-92FF-A49D6FDD3A48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3130027-0104-4A66-AB2A-05C866EC05EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{BADE6DAC-E3B5-42DE-92D5-9C0999B69204}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>申请部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,38 +145,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代理IP包月服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络组</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱衍颖</t>
-  </si>
-  <si>
-    <t>20190812海蓝本色好评1个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周克旺</t>
-  </si>
-  <si>
-    <t>20190904海蓝本色好评1个</t>
+    <t>廉晨洋</t>
+  </si>
+  <si>
+    <t>吉星</t>
+  </si>
+  <si>
+    <t>郭绍敏</t>
+  </si>
+  <si>
+    <t>2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190910海蓝本色好评1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190916海蓝本色好评1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190930海蓝本色好评1个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +261,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -349,16 +346,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -393,7 +390,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9C3CC0D4-F624-415C-9E28-38B00DE624D7}" name="表2" displayName="表2" ref="A1:Y4" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9C3CC0D4-F624-415C-9E28-38B00DE624D7}" name="表2" displayName="表2" ref="A1:Y4" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="A1:Y4" xr:uid="{B3838ACA-4FA7-429D-A381-359E665F196C}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{6496E721-7881-41FB-B2EB-8693BBA67207}" name="申请部门" dataDxfId="24"/>
@@ -746,7 +743,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="Y3" sqref="Y3:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -755,9 +752,9 @@
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="10" width="10.25" customWidth="1"/>
-    <col min="11" max="18" width="9" style="4" customWidth="1"/>
-    <col min="19" max="19" width="10.75" style="4" customWidth="1"/>
-    <col min="20" max="20" width="12" style="4" customWidth="1"/>
+    <col min="11" max="18" width="9" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.75" style="4" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="12" style="4" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="13.75" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="10.25" customWidth="1"/>
   </cols>
@@ -843,20 +840,20 @@
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5">
-        <v>2019</v>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="5">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>28</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
@@ -886,15 +883,15 @@
       </c>
       <c r="P2" s="4" t="str">
         <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100),"[DBNum2]"))</f>
-        <v>叁</v>
+        <v>X</v>
       </c>
       <c r="Q2" s="4" t="str">
         <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10),"[DBNum2]"))</f>
-        <v>叁</v>
+        <v>伍</v>
       </c>
       <c r="R2" s="4" t="str">
         <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)))=0,"X",TEXT(TRUNC(TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)),"[DBNum2]"))</f>
-        <v>柒</v>
+        <v>X</v>
       </c>
       <c r="S2" s="4" t="str">
         <f>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],1)-TRUNC(表2[[#This Row],[金额]],0))*10),"[DBNum2]"))</f>
@@ -905,7 +902,7 @@
         <v>X</v>
       </c>
       <c r="U2" s="2">
-        <v>337</v>
+        <v>50</v>
       </c>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -916,22 +913,22 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2019</v>
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
@@ -991,22 +988,22 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2019</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
